--- a/team_specific_matrix/Stanislaus St._B.xlsx
+++ b/team_specific_matrix/Stanislaus St._B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1428571428571428</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="C2">
-        <v>0.5714285714285714</v>
+        <v>0.5238095238095238</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1428571428571428</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.1428571428571428</v>
+        <v>0.04761904761904762</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.25</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.5</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.25</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.25</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.25</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.5</v>
+        <v>0.2222222222222222</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.2</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.06666666666666667</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.06666666666666667</v>
+        <v>0.04761904761904762</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.06666666666666667</v>
+        <v>0.1428571428571428</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -779,13 +779,13 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.06666666666666667</v>
+        <v>0.1904761904761905</v>
       </c>
       <c r="R6">
-        <v>0.06666666666666667</v>
+        <v>0.09523809523809523</v>
       </c>
       <c r="S6">
-        <v>0.4666666666666667</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -799,13 +799,13 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="R7">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
       <c r="S7">
-        <v>0.2</v>
+        <v>0.1111111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -858,7 +858,7 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>0.05263157894736842</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.07692307692307693</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -897,13 +897,13 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.07692307692307693</v>
+        <v>0.1578947368421053</v>
       </c>
       <c r="R8">
-        <v>0.1538461538461539</v>
+        <v>0.1052631578947368</v>
       </c>
       <c r="S8">
-        <v>0.6923076923076923</v>
+        <v>0.5789473684210527</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -917,13 +917,13 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="R9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="S9">
-        <v>0.3333333333333333</v>
+        <v>0.1666666666666667</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.04545454545454546</v>
+        <v>0.1101694915254237</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.04545454545454546</v>
+        <v>0.03389830508474576</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="F10">
-        <v>0.1818181818181818</v>
+        <v>0.1016949152542373</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.04545454545454546</v>
+        <v>0.1186440677966102</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.008474576271186441</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1818181818181818</v>
+        <v>0.2457627118644068</v>
       </c>
       <c r="R10">
-        <v>0.09090909090909091</v>
+        <v>0.07627118644067797</v>
       </c>
       <c r="S10">
-        <v>0.4090909090909091</v>
+        <v>0.2966101694915254</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.1428571428571428</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="K11">
-        <v>0.2857142857142857</v>
+        <v>0.25</v>
       </c>
       <c r="L11">
-        <v>0.2857142857142857</v>
+        <v>0.4166666666666667</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,7 +1112,7 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.5</v>
+        <v>0.2</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -1289,10 +1289,10 @@
         <v>0</v>
       </c>
       <c r="J15">
-        <v>0.375</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="K15">
-        <v>0.125</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1304,7 +1304,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.25</v>
+        <v>0.1176470588235294</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.25</v>
+        <v>0.1764705882352941</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="J16">
-        <v>0.75</v>
+        <v>0.7222222222222222</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>0.05555555555555555</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1363,7 +1363,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>0.1666666666666667</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.25</v>
+        <v>0.05555555555555555</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,19 +1395,19 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.1</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="I17">
-        <v>0.2</v>
+        <v>0.08571428571428572</v>
       </c>
       <c r="J17">
-        <v>0.2</v>
+        <v>0.5428571428571428</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1416,13 +1416,13 @@
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.1</v>
+        <v>0.02857142857142857</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0.1</v>
+        <v>0.05714285714285714</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1466,10 +1466,10 @@
         <v>0</v>
       </c>
       <c r="J18">
-        <v>0.7</v>
+        <v>0.75</v>
       </c>
       <c r="K18">
-        <v>0.1</v>
+        <v>0.0625</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1481,7 +1481,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.1</v>
+        <v>0.0625</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.1</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.04166666666666666</v>
+        <v>0.02564102564102564</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.25</v>
+        <v>0.217948717948718</v>
       </c>
       <c r="I19">
-        <v>0.02083333333333333</v>
+        <v>0.03846153846153846</v>
       </c>
       <c r="J19">
-        <v>0.4791666666666667</v>
+        <v>0.4871794871794872</v>
       </c>
       <c r="K19">
-        <v>0.0625</v>
+        <v>0.0641025641025641</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.02083333333333333</v>
+        <v>0.01282051282051282</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0.0625</v>
+        <v>0.07692307692307693</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.0625</v>
+        <v>0.07692307692307693</v>
       </c>
     </row>
   </sheetData>
